--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22464.82312779329</v>
+        <v>-25362.25138542981</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12471829.49273683</v>
+        <v>12471829.49273684</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18.21008304703042</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="G2" t="n">
-        <v>16.03944114782439</v>
+        <v>16.03944114782506</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.21008304703042</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>18.21008304703118</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.21008304703042</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="S3" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>16.03944114782439</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>16.03944114782506</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.03944114782506</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.21008304703042</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.21008304703042</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.03944114782439</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.21008304703042</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>18.21008304703118</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,14 +908,14 @@
         <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
+        <v>43.85944218949135</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>49.65101377519441</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>44.00343544142157</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,70 +972,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>43.85944218949135</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>47.15831191777808</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>46.49613729883792</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.62325037119972</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.23619181829162</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="S7" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>49.79500702712463</v>
+        <v>1.096651889078853</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>62.23605351084166</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="G8" t="n">
-        <v>69.11209925255308</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>29.63673178547965</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>112.1126601249237</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>71.94275483141207</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>62.17490796054056</v>
       </c>
     </row>
     <row r="10">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>51.82194179032387</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>51.82194179032386</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="Y10" t="n">
         <v>112.1126601249237</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>99.59933623926828</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>67.57859506479001</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1546,7 +1546,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.153894027972328</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>38.86225679397989</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389945</v>
+        <v>28.90056660389928</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>30.97708641989714</v>
+        <v>101.6950537740601</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429426</v>
+        <v>202.4786139429425</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.57624353203181</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512082</v>
+        <v>87.89778431512079</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853821</v>
+        <v>12.76005920853812</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>125.4762849237319</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>97.66499814765955</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434401</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782762</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D17" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295185</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179195</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
         <v>317.6307663651991</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464126</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2065,10 +2065,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295185</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645663</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2239,25 +2239,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464126</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E22" t="n">
         <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G22" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T22" t="n">
         <v>186.4872700401421</v>
@@ -2302,7 +2302,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998809</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453184</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453116</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
         <v>323.072839268469</v>
@@ -3038,10 +3038,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
         <v>255.2416659947559</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
         <v>354.6277363038396</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707191</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221571</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3241,16 +3241,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W34" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
         <v>186.9744509998808</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3275,10 +3275,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
         <v>255.2416659947559</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X35" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
         <v>117.0052706659984</v>
@@ -3433,16 +3433,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453006</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,16 +3478,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998808</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3727,7 +3727,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943535</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.84033218812168</v>
+        <v>36.05228562846577</v>
       </c>
       <c r="C2" t="n">
-        <v>54.44630890829297</v>
+        <v>36.05228562846577</v>
       </c>
       <c r="D2" t="n">
-        <v>54.44630890829297</v>
+        <v>36.05228562846577</v>
       </c>
       <c r="E2" t="n">
-        <v>54.44630890829297</v>
+        <v>36.05228562846577</v>
       </c>
       <c r="F2" t="n">
-        <v>36.05228562846426</v>
+        <v>17.6582623486363</v>
       </c>
       <c r="G2" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="H2" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762434</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762434</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="K2" t="n">
-        <v>19.48478886032255</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="L2" t="n">
-        <v>19.48478886032255</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="M2" t="n">
-        <v>37.51277107688266</v>
+        <v>19.48478886032336</v>
       </c>
       <c r="N2" t="n">
-        <v>55.54075329344278</v>
+        <v>37.51277107688422</v>
       </c>
       <c r="O2" t="n">
-        <v>72.84033218812168</v>
+        <v>55.54075329344509</v>
       </c>
       <c r="P2" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="R2" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="S2" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="T2" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="U2" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="V2" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="W2" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="X2" t="n">
-        <v>72.84033218812168</v>
+        <v>54.44630890829524</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.84033218812168</v>
+        <v>36.05228562846577</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="C3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="D3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="E3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="F3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="G3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="H3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762434</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762434</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762434</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032255</v>
+        <v>19.48478886032336</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688266</v>
+        <v>37.51277107688422</v>
       </c>
       <c r="N3" t="n">
-        <v>44.2668586788465</v>
+        <v>55.54075329344509</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089540662</v>
+        <v>62.29484089540919</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890829297</v>
+        <v>54.44630890829524</v>
       </c>
       <c r="S3" t="n">
-        <v>36.05228562846426</v>
+        <v>36.05228562846577</v>
       </c>
       <c r="T3" t="n">
-        <v>36.05228562846426</v>
+        <v>17.6582623486363</v>
       </c>
       <c r="U3" t="n">
-        <v>36.05228562846426</v>
+        <v>17.6582623486363</v>
       </c>
       <c r="V3" t="n">
-        <v>19.85082992359114</v>
+        <v>17.6582623486363</v>
       </c>
       <c r="W3" t="n">
-        <v>19.85082992359114</v>
+        <v>17.6582623486363</v>
       </c>
       <c r="X3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.85082992359114</v>
+        <v>1.456806643762494</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.44630890829297</v>
+        <v>17.6582623486363</v>
       </c>
       <c r="C4" t="n">
-        <v>54.44630890829297</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="D4" t="n">
-        <v>54.44630890829297</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="E4" t="n">
-        <v>54.44630890829297</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="F4" t="n">
-        <v>36.05228562846426</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="G4" t="n">
-        <v>36.05228562846426</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="H4" t="n">
-        <v>17.65826234863555</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762434</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762434</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762434</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="L4" t="n">
-        <v>19.48478886032255</v>
+        <v>1.456806643762494</v>
       </c>
       <c r="M4" t="n">
-        <v>37.51277107688266</v>
+        <v>19.48478886032336</v>
       </c>
       <c r="N4" t="n">
-        <v>37.51277107688266</v>
+        <v>37.51277107688422</v>
       </c>
       <c r="O4" t="n">
-        <v>54.81234997156156</v>
+        <v>55.54075329344509</v>
       </c>
       <c r="P4" t="n">
-        <v>72.84033218812168</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.44630890829297</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="R4" t="n">
-        <v>54.44630890829297</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="S4" t="n">
-        <v>54.44630890829297</v>
+        <v>72.84033218812471</v>
       </c>
       <c r="T4" t="n">
-        <v>54.44630890829297</v>
+        <v>54.44630890829524</v>
       </c>
       <c r="U4" t="n">
-        <v>54.44630890829297</v>
+        <v>54.44630890829524</v>
       </c>
       <c r="V4" t="n">
-        <v>54.44630890829297</v>
+        <v>36.05228562846577</v>
       </c>
       <c r="W4" t="n">
-        <v>54.44630890829297</v>
+        <v>36.05228562846577</v>
       </c>
       <c r="X4" t="n">
-        <v>54.44630890829297</v>
+        <v>36.05228562846577</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.44630890829297</v>
+        <v>17.6582623486363</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5795743543409</v>
+        <v>148.882041212413</v>
       </c>
       <c r="F5" t="n">
+        <v>98.58405431632752</v>
+      </c>
+      <c r="G5" t="n">
         <v>54.28158745825545</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.98360056216997</v>
-      </c>
       <c r="H5" t="n">
-        <v>3.98360056216997</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="I5" t="n">
         <v>3.98360056216997</v>
@@ -4571,46 +4571,46 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>19.82590800208273</v>
+        <v>53.28065751902335</v>
       </c>
       <c r="M5" t="n">
-        <v>69.12296495893611</v>
+        <v>102.5777144758767</v>
       </c>
       <c r="N5" t="n">
-        <v>118.4200219157895</v>
+        <v>151.8747714327301</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7444867130883</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="P5" t="n">
-        <v>156.7444867130883</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Q5" t="n">
         <v>199.1800281084985</v>
       </c>
       <c r="R5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="T5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="U5" t="n">
-        <v>149.0274889416355</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="V5" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="W5" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="X5" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.5795743543409</v>
+        <v>199.1800281084985</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.5795743543409</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="C6" t="n">
         <v>54.28158745825545</v>
@@ -4635,10 +4635,10 @@
         <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
         <v>3.98360056216997</v>
@@ -4659,7 +4659,7 @@
         <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1973125878844</v>
+        <v>170.4401317516709</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4668,19 +4668,19 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R6" t="n">
-        <v>151.5453696056924</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="S6" t="n">
-        <v>151.5453696056924</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="T6" t="n">
-        <v>151.5453696056924</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="U6" t="n">
-        <v>151.5453696056924</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="V6" t="n">
-        <v>104.5795743543409</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="W6" t="n">
         <v>104.5795743543409</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.78486356338181</v>
+        <v>97.47632513543981</v>
       </c>
       <c r="C7" t="n">
-        <v>21.78486356338181</v>
+        <v>97.47632513543981</v>
       </c>
       <c r="D7" t="n">
-        <v>21.78486356338181</v>
+        <v>97.47632513543981</v>
       </c>
       <c r="E7" t="n">
-        <v>21.78486356338181</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="F7" t="n">
-        <v>21.78486356338181</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="G7" t="n">
-        <v>3.98360056216997</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="H7" t="n">
-        <v>3.98360056216997</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="I7" t="n">
-        <v>3.98360056216997</v>
+        <v>47.17833823935432</v>
       </c>
       <c r="J7" t="n">
         <v>3.98360056216997</v>
       </c>
       <c r="K7" t="n">
-        <v>3.98360056216997</v>
+        <v>53.28065751902335</v>
       </c>
       <c r="L7" t="n">
-        <v>53.28065751902335</v>
+        <v>102.5777144758767</v>
       </c>
       <c r="M7" t="n">
-        <v>102.5777144758767</v>
+        <v>151.8747714327301</v>
       </c>
       <c r="N7" t="n">
-        <v>151.8747714327301</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="O7" t="n">
         <v>199.1800281084985</v>
@@ -4744,31 +4744,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q7" t="n">
-        <v>172.6788242516383</v>
+        <v>199.1800281084985</v>
       </c>
       <c r="R7" t="n">
-        <v>172.6788242516383</v>
+        <v>148.882041212413</v>
       </c>
       <c r="S7" t="n">
-        <v>122.3808373555528</v>
+        <v>148.882041212413</v>
       </c>
       <c r="T7" t="n">
-        <v>122.3808373555528</v>
+        <v>148.882041212413</v>
       </c>
       <c r="U7" t="n">
-        <v>122.3808373555528</v>
+        <v>148.882041212413</v>
       </c>
       <c r="V7" t="n">
-        <v>122.3808373555528</v>
+        <v>148.882041212413</v>
       </c>
       <c r="W7" t="n">
-        <v>72.08285045946729</v>
+        <v>147.7743120315253</v>
       </c>
       <c r="X7" t="n">
-        <v>72.08285045946729</v>
+        <v>147.7743120315253</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.08285045946729</v>
+        <v>147.7743120315253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.0243253124956</v>
+        <v>129.159624796494</v>
       </c>
       <c r="C8" t="n">
-        <v>192.0243253124956</v>
+        <v>129.159624796494</v>
       </c>
       <c r="D8" t="n">
-        <v>192.0243253124956</v>
+        <v>129.159624796494</v>
       </c>
       <c r="E8" t="n">
-        <v>192.0243253124956</v>
+        <v>129.159624796494</v>
       </c>
       <c r="F8" t="n">
-        <v>78.77921407519902</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="G8" t="n">
         <v>8.969012809993892</v>
@@ -4829,16 +4829,16 @@
         <v>418.5145477870889</v>
       </c>
       <c r="S8" t="n">
-        <v>305.2694365497923</v>
+        <v>418.5145477870889</v>
       </c>
       <c r="T8" t="n">
         <v>305.2694365497923</v>
       </c>
       <c r="U8" t="n">
-        <v>192.0243253124956</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="V8" t="n">
-        <v>192.0243253124956</v>
+        <v>305.2694365497923</v>
       </c>
       <c r="W8" t="n">
         <v>192.0243253124956</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>225.5927232938078</v>
+        <v>235.4592352845871</v>
       </c>
       <c r="C9" t="n">
-        <v>225.5927232938078</v>
+        <v>122.2141240472905</v>
       </c>
       <c r="D9" t="n">
-        <v>225.5927232938078</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="E9" t="n">
-        <v>225.5927232938078</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="F9" t="n">
-        <v>225.5927232938078</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="G9" t="n">
-        <v>112.3476120565112</v>
+        <v>8.969012809993892</v>
       </c>
       <c r="H9" t="n">
         <v>8.969012809993892</v>
@@ -4893,7 +4893,7 @@
         <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>287.4309731640694</v>
+        <v>341.1718347265721</v>
       </c>
       <c r="O9" t="n">
         <v>387.4830745953194</v>
@@ -4911,22 +4911,22 @@
         <v>411.5072838557631</v>
       </c>
       <c r="T9" t="n">
+        <v>411.5072838557631</v>
+      </c>
+      <c r="U9" t="n">
+        <v>411.5072838557631</v>
+      </c>
+      <c r="V9" t="n">
+        <v>411.5072838557631</v>
+      </c>
+      <c r="W9" t="n">
+        <v>411.5072838557631</v>
+      </c>
+      <c r="X9" t="n">
         <v>298.2621726184665</v>
       </c>
-      <c r="U9" t="n">
-        <v>298.2621726184665</v>
-      </c>
-      <c r="V9" t="n">
-        <v>225.5927232938078</v>
-      </c>
-      <c r="W9" t="n">
-        <v>225.5927232938078</v>
-      </c>
-      <c r="X9" t="n">
-        <v>225.5927232938078</v>
-      </c>
       <c r="Y9" t="n">
-        <v>225.5927232938078</v>
+        <v>235.4592352845871</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>207.5477262869998</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="C10" t="n">
-        <v>94.30261504970319</v>
+        <v>41.9572193019013</v>
       </c>
       <c r="D10" t="n">
         <v>41.9572193019013</v>
@@ -4966,16 +4966,16 @@
         <v>85.67486684193852</v>
       </c>
       <c r="L10" t="n">
-        <v>85.67486684193852</v>
+        <v>115.4760399286714</v>
       </c>
       <c r="M10" t="n">
-        <v>196.6664003656129</v>
+        <v>226.4675734523458</v>
       </c>
       <c r="N10" t="n">
-        <v>307.6579338892873</v>
+        <v>337.4591069760202</v>
       </c>
       <c r="O10" t="n">
-        <v>348.3432026568694</v>
+        <v>448.4506404996946</v>
       </c>
       <c r="P10" t="n">
         <v>448.4506404996946</v>
@@ -4999,13 +4999,13 @@
         <v>320.7928375242964</v>
       </c>
       <c r="W10" t="n">
-        <v>320.7928375242964</v>
+        <v>268.4474417764945</v>
       </c>
       <c r="X10" t="n">
-        <v>320.7928375242964</v>
+        <v>155.2023305391979</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.5477262869998</v>
+        <v>41.9572193019013</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796261</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C11" t="n">
-        <v>921.7704558796261</v>
+        <v>1179.430764345702</v>
       </c>
       <c r="D11" t="n">
-        <v>921.7704558796261</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="E11" t="n">
         <v>821.1650657389511</v>
@@ -5030,61 +5030,61 @@
         <v>821.1650657389511</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3051.366866857241</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3051.366866857241</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2698.598211587127</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2325.132453326047</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>1934.993121350235</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.4970410294718</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="C13" t="n">
-        <v>772.5608581015648</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1925.118897555187</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.433013382013</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1511.666397951539</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1222.563531077183</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882606</v>
+        <v>967.8790428712961</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845646</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.938085003242</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="Y13" t="n">
-        <v>1123.145505859711</v>
+        <v>678.4618728343355</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1656.677488919608</v>
+        <v>2336.647924733508</v>
       </c>
       <c r="C14" t="n">
-        <v>1287.714971979196</v>
+        <v>1967.685407793097</v>
       </c>
       <c r="D14" t="n">
-        <v>929.4492733724453</v>
+        <v>1609.419709186346</v>
       </c>
       <c r="E14" t="n">
-        <v>929.4492733724453</v>
+        <v>1223.631456588102</v>
       </c>
       <c r="F14" t="n">
-        <v>518.4633685828378</v>
+        <v>812.6455517984942</v>
       </c>
       <c r="G14" t="n">
-        <v>103.7230475307834</v>
+        <v>397.9052307464397</v>
       </c>
       <c r="H14" t="n">
-        <v>103.7230475307834</v>
+        <v>103.7230475307833</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169312</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773526</v>
+        <v>291.0377674773536</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055991</v>
+        <v>666.264472005601</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.6681406457</v>
+        <v>1168.668140645702</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275287</v>
+        <v>1759.35846227529</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.220579235392</v>
+        <v>2364.220579235396</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163075</v>
+        <v>2922.03946316308</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.623974140404</v>
+        <v>3363.62397414041</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.062805049514</v>
+        <v>3647.06280504952</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.52780058465</v>
+        <v>3726.527800584656</v>
       </c>
       <c r="S14" t="n">
-        <v>3695.237814301926</v>
+        <v>3623.805524045201</v>
       </c>
       <c r="T14" t="n">
-        <v>3490.713961834306</v>
+        <v>3419.281671577583</v>
       </c>
       <c r="U14" t="n">
-        <v>3490.713961834306</v>
+        <v>3410.618799323005</v>
       </c>
       <c r="V14" t="n">
-        <v>3159.651074490735</v>
+        <v>3079.555911979434</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.882419220621</v>
+        <v>2726.78725670932</v>
       </c>
       <c r="X14" t="n">
-        <v>2433.416660959541</v>
+        <v>2726.78725670932</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.277328983729</v>
+        <v>2336.647924733508</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718615</v>
+        <v>87.41950470718618</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169301</v>
+        <v>74.53055601169312</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807617</v>
+        <v>184.6629209807621</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628286</v>
+        <v>451.0514990628294</v>
       </c>
       <c r="L15" t="n">
-        <v>855.5663578417089</v>
+        <v>855.5663578417102</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.972986475665</v>
+        <v>1346.972986475667</v>
       </c>
       <c r="N15" t="n">
-        <v>1865.794331259249</v>
+        <v>1584.854076736358</v>
       </c>
       <c r="O15" t="n">
-        <v>2318.194706560483</v>
+        <v>2037.254452037592</v>
       </c>
       <c r="P15" t="n">
         <v>2381.012571295174</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>778.2113217457605</v>
+        <v>616.1044064814436</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2751388178541</v>
+        <v>517.4528932009794</v>
       </c>
       <c r="D16" t="n">
-        <v>459.1584994055183</v>
+        <v>367.3362537886437</v>
       </c>
       <c r="E16" t="n">
-        <v>459.1584994055183</v>
+        <v>219.4231602062505</v>
       </c>
       <c r="F16" t="n">
-        <v>312.268551907608</v>
+        <v>219.4231602062505</v>
       </c>
       <c r="G16" t="n">
-        <v>312.268551907608</v>
+        <v>219.4231602062505</v>
       </c>
       <c r="H16" t="n">
-        <v>167.3759477130506</v>
+        <v>74.53055601169312</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169299</v>
+        <v>74.53055601169312</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525472</v>
+        <v>129.9765865525474</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923172</v>
+        <v>350.9282837923176</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553107</v>
+        <v>689.1968198553113</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479733</v>
+        <v>1056.242685479734</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229307</v>
+        <v>1419.995637229309</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776858</v>
+        <v>1739.96406777686</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135873</v>
+        <v>1990.231654135875</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389594</v>
+        <v>2080.068878389597</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389594</v>
+        <v>2080.068878389597</v>
       </c>
       <c r="S16" t="n">
-        <v>1890.979338613558</v>
+        <v>2080.068878389597</v>
       </c>
       <c r="T16" t="n">
-        <v>1669.849281277322</v>
+        <v>1858.938821053361</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.849281277322</v>
+        <v>1569.844080452548</v>
       </c>
       <c r="V16" t="n">
-        <v>1415.164793071435</v>
+        <v>1315.159592246661</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.747623034474</v>
+        <v>1025.7424222097</v>
       </c>
       <c r="X16" t="n">
-        <v>1125.747623034474</v>
+        <v>797.7528713116833</v>
       </c>
       <c r="Y16" t="n">
-        <v>904.9550438909442</v>
+        <v>797.7528713116833</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5516,19 +5516,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
         <v>3813.656640612703</v>
@@ -5543,22 +5543,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249806</v>
+        <v>326.5159252754111</v>
       </c>
       <c r="L18" t="n">
-        <v>388.0214583249806</v>
+        <v>326.5159252754111</v>
       </c>
       <c r="M18" t="n">
         <v>875.4343898857002</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502101</v>
+        <v>872.8624197502091</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443606</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,37 +5686,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.178257479667</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050961</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233287</v>
@@ -5771,16 +5771,16 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U20" t="n">
         <v>3795.851627400162</v>
@@ -5823,31 +5823,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>388.0214583249806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>936.9399229352697</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1514.795270861672</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>2021.200225809922</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P21" t="n">
-        <v>2408.301781362078</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502091</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609043</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039798</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F22" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749439</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897926</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443607</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902781</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5929,31 +5929,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
         <v>2001.213713746739</v>
@@ -6011,28 +6011,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,28 +6060,28 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477731</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039816</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.72454563154</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074946</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897949</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902793</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040894</v>
@@ -6166,10 +6166,10 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S25" t="n">
         <v>2333.272818966196</v>
@@ -6187,10 +6187,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6224,10 +6224,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6239,10 +6239,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6254,7 +6254,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400161</v>
@@ -6303,28 +6303,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>140.8607658641353</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9018152139996</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>897.700444808327</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>1446.618909418616</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>2024.474257345018</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6370,7 +6370,7 @@
         <v>501.6849958039803</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749444</v>
@@ -6388,7 +6388,7 @@
         <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6400,16 +6400,16 @@
         <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
         <v>2144.901839127669</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511622</v>
@@ -6464,22 +6464,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
         <v>4142.907144767228</v>
@@ -6488,10 +6488,10 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400161</v>
@@ -6503,10 +6503,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6540,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L30" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502113</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477731</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D31" t="n">
-        <v>617.668592060906</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039815</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315399</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749453</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897942</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,10 +6634,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
@@ -6655,16 +6655,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6698,28 +6698,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755811</v>
@@ -6737,7 +6737,7 @@
         <v>3496.718237382059</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
         <v>2834.342818501802</v>
@@ -6777,22 +6777,22 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>468.6667932445192</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>922.4654228388466</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P33" t="n">
         <v>2555.644190323788</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502115</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477733</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609062</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039818</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749442</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902787</v>
@@ -6871,10 +6871,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
         <v>2529.521427597205</v>
@@ -6886,22 +6886,22 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357085</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645593</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254983</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G35" t="n">
         <v>342.8002736162838</v>
@@ -6935,25 +6935,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
         <v>4142.907144767228</v>
@@ -6962,25 +6962,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7029,7 +7029,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502095</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477713</v>
+        <v>735.8557341477708</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609037</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315376</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749434</v>
       </c>
       <c r="H37" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042781</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443594</v>
+        <v>459.5287020443608</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354972</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352542</v>
@@ -7251,28 +7251,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
@@ -7339,7 +7339,7 @@
         <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
@@ -7360,19 +7360,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796654</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162817</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511402</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
@@ -7500,7 +7500,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
         <v>2555.644190323788</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
@@ -7591,7 +7591,7 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796661</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050965</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502087</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477704</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609032</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K46" t="n">
         <v>459.5287020443611</v>
@@ -7825,7 +7825,7 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352542</v>
@@ -7849,7 +7849,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107772</v>
+        <v>60.90377530107733</v>
       </c>
       <c r="K2" t="n">
-        <v>58.23802601699362</v>
+        <v>40.02794296996262</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986488</v>
+        <v>12.38369583986415</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.070085188520316</v>
+        <v>9.805846119713451</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855452</v>
+        <v>45.15099615439187</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.44336957621906</v>
+        <v>69.44336957621857</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587617</v>
+        <v>55.28179755587594</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924389</v>
+        <v>15.54112977924349</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957068</v>
+        <v>43.30284318957037</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018329</v>
+        <v>55.24219515018305</v>
       </c>
       <c r="L4" t="n">
-        <v>58.69319715026883</v>
+        <v>40.48311410323809</v>
       </c>
       <c r="M4" t="n">
-        <v>57.6026557536393</v>
+        <v>57.60265575363974</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988203</v>
+        <v>48.72909356691289</v>
       </c>
       <c r="O4" t="n">
-        <v>66.18183960989954</v>
+        <v>66.91760054109317</v>
       </c>
       <c r="P4" t="n">
-        <v>79.14229504431857</v>
+        <v>78.4065341131259</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8219,7 +8219,7 @@
         <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>33.792676279738</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9.071506947949025</v>
       </c>
       <c r="P5" t="n">
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
-        <v>92.88280094721958</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8374,7 +8374,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>45.86784710562524</v>
+        <v>95.66285413274987</v>
       </c>
       <c r="L7" t="n">
         <v>78.28218310839884</v>
@@ -8383,10 +8383,10 @@
         <v>76.53954504419404</v>
       </c>
       <c r="N7" t="n">
-        <v>67.96672485263689</v>
+        <v>65.95480537679347</v>
       </c>
       <c r="O7" t="n">
-        <v>85.08588177485925</v>
+        <v>37.30279422357805</v>
       </c>
       <c r="P7" t="n">
         <v>51.173501012562</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>37.34101893964862</v>
       </c>
       <c r="M10" t="n">
         <v>116.4537900083357</v>
@@ -8623,10 +8623,10 @@
         <v>108.4136727881176</v>
       </c>
       <c r="O10" t="n">
-        <v>58.19788920833449</v>
+        <v>129.2143182548924</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>282.3310338329935</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>183.416576894112</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>86.778258642075</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>186.8473985950573</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.71796735416311</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339484</v>
+        <v>242.3926238019166</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.35569525820544</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>69.58182295096829</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.8783163942143</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.91693778434396</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396096</v>
+        <v>82.30038209396088</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2037931948048</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.39846467172096e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.378452907374594e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.378452907374594e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.62203585174593e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.101341240428155e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.892671637701174e-12</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.77280412572145e-12</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917061.0795032108</v>
+        <v>917061.079503211</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>965815.4434009905</v>
+        <v>965815.4434009914</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
         <v>289847.5341252826</v>
       </c>
       <c r="F2" t="n">
-        <v>305485.72631891</v>
+        <v>305485.7263189103</v>
       </c>
       <c r="G2" t="n">
         <v>348942.7521923203</v>
       </c>
       <c r="H2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="I2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="J2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="K2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923201</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923206</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.59703218</v>
+        <v>345405.5970321814</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.6313487674</v>
+        <v>50948.63134876612</v>
       </c>
       <c r="D3" t="n">
         <v>87233.51607513236</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429537</v>
+        <v>707780.8576429536</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654325</v>
+        <v>93369.88484654461</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975334</v>
+        <v>143964.0818975321</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.389644451905042e-11</v>
+        <v>5.237009190750541e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.55896875717</v>
+        <v>4764.558968757064</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908936</v>
+        <v>8128.948714908691</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194622</v>
+        <v>41060.19902194617</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613178</v>
+        <v>24549.15438613217</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875946</v>
+        <v>31434.59456875908</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348159.5487171874</v>
+        <v>348159.548717187</v>
       </c>
       <c r="C4" t="n">
         <v>332624.1818074201</v>
@@ -26430,34 +26430,34 @@
         <v>14091.87843567592</v>
       </c>
       <c r="G4" t="n">
-        <v>45229.37087109618</v>
+        <v>45229.37087109612</v>
       </c>
       <c r="H4" t="n">
-        <v>45229.37087109615</v>
+        <v>45229.37087109612</v>
       </c>
       <c r="I4" t="n">
-        <v>45229.37087109625</v>
+        <v>45229.37087109612</v>
       </c>
       <c r="J4" t="n">
         <v>45229.37087109618</v>
       </c>
       <c r="K4" t="n">
-        <v>45229.37087109624</v>
+        <v>45229.37087109617</v>
       </c>
       <c r="L4" t="n">
+        <v>45229.37087109619</v>
+      </c>
+      <c r="M4" t="n">
+        <v>45229.37087109618</v>
+      </c>
+      <c r="N4" t="n">
+        <v>45229.37087109619</v>
+      </c>
+      <c r="O4" t="n">
         <v>45229.37087109625</v>
       </c>
-      <c r="M4" t="n">
-        <v>45229.37087109621</v>
-      </c>
-      <c r="N4" t="n">
-        <v>45229.37087109617</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45229.37087109618</v>
-      </c>
       <c r="P4" t="n">
-        <v>45229.37087109614</v>
+        <v>45229.37087109619</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.88882425665</v>
+        <v>42410.88882425672</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
@@ -26479,34 +26479,34 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390705</v>
+        <v>82183.39720390715</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="M5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="L5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.43410215527</v>
-      </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387033.2823813037</v>
+        <v>-387033.2823813044</v>
       </c>
       <c r="C6" t="n">
-        <v>-79936.7441543491</v>
+        <v>-79936.74415434788</v>
       </c>
       <c r="D6" t="n">
-        <v>-93966.14952531707</v>
+        <v>-93966.14952531713</v>
       </c>
       <c r="E6" t="n">
-        <v>-506279.6749362421</v>
+        <v>-506627.293866048</v>
       </c>
       <c r="F6" t="n">
-        <v>115840.5658327837</v>
+        <v>115584.9362688214</v>
       </c>
       <c r="G6" t="n">
-        <v>64642.86532153544</v>
+        <v>64642.86532153681</v>
       </c>
       <c r="H6" t="n">
-        <v>208606.9472190691</v>
+        <v>208606.947219069</v>
       </c>
       <c r="I6" t="n">
-        <v>208606.9472190688</v>
+        <v>208606.9472190685</v>
       </c>
       <c r="J6" t="n">
         <v>203842.3882503117</v>
       </c>
       <c r="K6" t="n">
-        <v>200477.9985041599</v>
+        <v>200477.9985041603</v>
       </c>
       <c r="L6" t="n">
-        <v>167546.7481971225</v>
+        <v>167546.7481971228</v>
       </c>
       <c r="M6" t="n">
-        <v>29357.30228076711</v>
+        <v>29357.30228076744</v>
       </c>
       <c r="N6" t="n">
-        <v>184057.7928329374</v>
+        <v>184057.792832937</v>
       </c>
       <c r="O6" t="n">
-        <v>177172.3526503093</v>
+        <v>177172.35265031</v>
       </c>
       <c r="P6" t="n">
-        <v>208606.9472190689</v>
+        <v>208606.947219069</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
+        <v>31.61020235221394</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221391</v>
       </c>
-      <c r="I2" t="n">
-        <v>31.61020235221401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.610202352214</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221401</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.610202352214</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="P2" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228074</v>
+        <v>352.1154025228086</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808274</v>
+        <v>1171.567643808275</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
@@ -26796,16 +26796,16 @@
         <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461626</v>
+        <v>931.6319501461639</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="H4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="I4" t="n">
         <v>1062.255112188953</v>
@@ -26826,7 +26826,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228074</v>
+        <v>352.1154025228086</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074476063</v>
+        <v>44.74454074475949</v>
       </c>
       <c r="D3" t="n">
         <v>79.25580793093417</v>
@@ -26969,16 +26969,16 @@
         <v>613.660949394796</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497541</v>
+        <v>81.79094321497655</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118491</v>
+        <v>106.5922268118479</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009421</v>
+        <v>31.58492398009345</v>
       </c>
       <c r="D4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438697</v>
+        <v>100.2304947438713</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.6231620427889</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-2.611517270482763e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703095</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009421</v>
+        <v>31.58492398009345</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438697</v>
+        <v>100.2304947438713</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.6231620427884</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009421</v>
+        <v>31.58492398009345</v>
       </c>
       <c r="L4" t="n">
         <v>62.31765309779902</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.288795277369</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438697</v>
+        <v>100.2304947438713</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427902</v>
+        <v>130.6231620427889</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>347.0628087239771</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>388.665962694681</v>
+        <v>388.6659626946803</v>
       </c>
       <c r="G2" t="n">
-        <v>397.8477570606863</v>
+        <v>397.8477570606856</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918005</v>
+        <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>137.6932274047402</v>
+        <v>155.9033104517704</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.95024697140775</v>
+        <v>60.95024697140747</v>
       </c>
       <c r="S2" t="n">
-        <v>176.7634676365429</v>
+        <v>176.7634676365428</v>
       </c>
       <c r="T2" t="n">
         <v>216.8993262493833</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>351.5210176314379</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>368.0278556090224</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>45.11007895717674</v>
+        <v>63.32016200420708</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>34.92373565171778</v>
+        <v>34.92373565171686</v>
       </c>
       <c r="S3" t="n">
-        <v>139.4050811729952</v>
+        <v>139.4050811729945</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918173</v>
+        <v>178.9018715447861</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
-        <v>216.7611460016009</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>189.7335440556524</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>151.2073799508028</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>127.2109649759008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3560171571881</v>
       </c>
       <c r="H4" t="n">
-        <v>138.3716982527484</v>
+        <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>120.3159886721315</v>
+        <v>136.3554298199558</v>
       </c>
       <c r="J4" t="n">
-        <v>48.46735248683879</v>
+        <v>48.46735248683865</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.78253442372004</v>
+        <v>32.9926174707503</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545825</v>
+        <v>148.7431818545824</v>
       </c>
       <c r="S4" t="n">
-        <v>212.9509385839195</v>
+        <v>212.9509385839194</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2325691137615</v>
+        <v>207.0224860667303</v>
       </c>
       <c r="U4" t="n">
         <v>286.2843950546034</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>233.9275602767968</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>200.3745703050636</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>332.938834636356</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>363.9123136306533</v>
+        <v>369.8478784682866</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>148.9685811771479</v>
+        <v>99.17357415002331</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
@@ -27673,7 +27673,7 @@
         <v>251.2180195592479</v>
       </c>
       <c r="V5" t="n">
-        <v>283.7488230287133</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C6" t="n">
-        <v>122.9134919611911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4898938890125</v>
+        <v>86.69488686188785</v>
       </c>
       <c r="H6" t="n">
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>10.21152625211678</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S6" t="n">
-        <v>155.8274931817798</v>
+        <v>111.9680509922885</v>
       </c>
       <c r="T6" t="n">
         <v>196.7240278659264</v>
@@ -27752,10 +27752,10 @@
         <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>186.3044498505873</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>96.63895561944454</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>149.6520799092355</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H7" t="n">
         <v>155.8644016137399</v>
@@ -27795,7 +27795,7 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
-        <v>145.11520646895</v>
+        <v>95.32019944182534</v>
       </c>
       <c r="S7" t="n">
-        <v>161.7497793501111</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T7" t="n">
         <v>224.8878160949084</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>236.7279913094664</v>
+        <v>285.4263464475122</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>320.4977881526389</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>294.7633856167878</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2766050919347</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519758</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>102.6045092346994</v>
       </c>
       <c r="U8" t="n">
-        <v>139.0798701292611</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924894</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>60.59583886339209</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>35.3324054397151</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,10 +27944,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
         <v>54.13711731454486</v>
@@ -27983,22 +27983,22 @@
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>83.92423484016754</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>160.8578323180132</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>93.66032507855383</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>143.5077878167638</v>
       </c>
     </row>
     <row r="10">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.13416097370418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.79353122788848</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28071,10 +28071,10 @@
         <v>140.0249831989044</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>234.7010565462671</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>113.5969952641135</v>
       </c>
       <c r="Y10" t="n">
         <v>106.4719932271711</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221508</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221204</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.610202352214</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605712</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221382</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.41553930662435</v>
+        <v>1.415539306624355</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396663</v>
+        <v>14.49689192396668</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863532</v>
+        <v>54.5725791186355</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256086</v>
+        <v>120.142129225609</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750174</v>
+        <v>180.0619080750179</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301224</v>
+        <v>223.3827191301231</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743031</v>
+        <v>248.556316274304</v>
       </c>
       <c r="N2" t="n">
-        <v>247.6231466436213</v>
+        <v>247.6231466436221</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490037</v>
+        <v>238.5024483490045</v>
       </c>
       <c r="P2" t="n">
-        <v>203.556321716715</v>
+        <v>203.5563217167157</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982304</v>
+        <v>152.8623202982309</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974193</v>
+        <v>88.91887096974222</v>
       </c>
       <c r="S2" t="n">
-        <v>32.25660194970241</v>
+        <v>32.25660194970252</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748097</v>
+        <v>6.196523314748116</v>
       </c>
       <c r="U2" t="n">
-        <v>0.113243144529948</v>
+        <v>0.1132431445299484</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660386</v>
+        <v>0.757380299766041</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898321</v>
+        <v>7.314699210898345</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720791</v>
+        <v>26.076470847208</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079053</v>
+        <v>71.55582911079075</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951151</v>
+        <v>122.3003091951155</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269046</v>
+        <v>156.7644628269053</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690487</v>
+        <v>160.3441169690495</v>
       </c>
       <c r="N3" t="n">
-        <v>138.1640227923877</v>
+        <v>149.5517951303645</v>
       </c>
       <c r="O3" t="n">
-        <v>160.8063274914749</v>
+        <v>149.4185551534991</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211131</v>
+        <v>144.6264188211136</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645084</v>
+        <v>96.67893089645115</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389494</v>
+        <v>47.0240154538951</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381215</v>
+        <v>14.0680068838122</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004339</v>
+        <v>3.052774103004348</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0498276513003973</v>
+        <v>0.04982765130039746</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706363</v>
+        <v>0.6349622012706383</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660752</v>
+        <v>5.64539120766077</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730241</v>
+        <v>19.09504510730248</v>
       </c>
       <c r="J4" t="n">
-        <v>44.89182762983398</v>
+        <v>44.89182762983413</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035209</v>
+        <v>73.77106302035233</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217799988</v>
+        <v>94.40156217800019</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099618</v>
+        <v>99.53321124099649</v>
       </c>
       <c r="N4" t="n">
-        <v>97.16653394535116</v>
+        <v>97.16653394535147</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778052</v>
+        <v>89.7490209577808</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185946</v>
+        <v>76.79579205185972</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094392</v>
+        <v>53.16942578094409</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258696</v>
+        <v>28.55020952258706</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305281</v>
+        <v>11.06565945305285</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314519991</v>
+        <v>2.713020314519999</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748929</v>
+        <v>0.0346343018874894</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31379,10 +31379,10 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P6" t="n">
-        <v>134.9670493543445</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31613,10 +31613,10 @@
         <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>189.1706736602745</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>189.3752746148963</v>
       </c>
       <c r="P9" t="n">
         <v>195.5578073177395</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601097</v>
+        <v>4.709819673601102</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226725</v>
+        <v>48.2344407322673</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665065</v>
+        <v>181.5753229665066</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223015</v>
+        <v>399.7400575223019</v>
       </c>
       <c r="K14" t="n">
-        <v>599.106724305836</v>
+        <v>599.1067243058366</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418057</v>
+        <v>743.2448681418065</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622092</v>
+        <v>827.00312376221</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098284</v>
+        <v>840.3848989098292</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304574</v>
+        <v>793.5516295304582</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384303</v>
+        <v>677.2779563384308</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775908</v>
+        <v>508.6075392775913</v>
       </c>
       <c r="R14" t="n">
-        <v>295.8532100718452</v>
+        <v>295.8532100718455</v>
       </c>
       <c r="S14" t="n">
-        <v>107.3250158121851</v>
+        <v>107.3250158121852</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118881</v>
+        <v>20.61723562118883</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880876</v>
+        <v>0.376785573888088</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681947</v>
+        <v>2.51997568668195</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137565</v>
+        <v>24.33765992137567</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146179</v>
+        <v>86.76232079146187</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667361</v>
+        <v>238.0824397667363</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744266</v>
+        <v>406.920810774427</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332886</v>
+        <v>547.1552472332892</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755091</v>
+        <v>638.5043658755097</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111965</v>
+        <v>371.6256416395873</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062965</v>
+        <v>599.5663205062971</v>
       </c>
       <c r="P15" t="n">
-        <v>197.4267960352305</v>
+        <v>481.2048309068365</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999623</v>
+        <v>321.6726858999626</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762298</v>
+        <v>46.80744312762302</v>
       </c>
       <c r="T15" t="n">
-        <v>10.1572704213189</v>
+        <v>10.15727042131891</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238124</v>
+        <v>0.1657878741238125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244428</v>
+        <v>2.11266296424443</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482775</v>
+        <v>18.78349435482776</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291426</v>
+        <v>63.53353714291433</v>
       </c>
       <c r="J16" t="n">
-        <v>149.365271572081</v>
+        <v>149.3652715720812</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913071</v>
+        <v>245.4530243913073</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023034</v>
+        <v>314.0953647023038</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587879</v>
+        <v>331.1695226587882</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102407</v>
+        <v>323.295051610241</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824761</v>
+        <v>298.6153069824765</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118896</v>
+        <v>255.5169825118898</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150493</v>
+        <v>176.9067142150495</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320852</v>
+        <v>94.99300928320861</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869606</v>
+        <v>36.8179536586961</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408007</v>
+        <v>9.026832665408016</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860598</v>
+        <v>0.1152361616860599</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.943509024727</v>
+        <v>248.910544319637</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>634.4703284277957</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
         <v>715.0339827160628</v>
@@ -32549,13 +32549,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879669</v>
@@ -32564,13 +32564,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P21" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>288.8124902089615</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T23" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J24" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155584</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6701715750701</v>
+        <v>211.6584993001642</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,40 +32862,40 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I25" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M25" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N25" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,7 +33023,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>183.2824316050698</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33038,7 +33038,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33260,7 +33260,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>443.943509024727</v>
@@ -33275,7 +33275,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,7 +33497,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
@@ -33512,10 +33512,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33749,10 +33749,10 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>602.6701715750701</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,13 +33971,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
         <v>696.5971294879669</v>
@@ -33986,16 +33986,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P39" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34220,10 +34220,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O42" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34448,10 +34448,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>223.8954149958798</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>18.21008304703042</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="O2" t="n">
-        <v>17.47432211583727</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.474322115838</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="N3" t="n">
-        <v>6.822310709054383</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="O3" t="n">
-        <v>18.21008304703042</v>
+        <v>6.822310709054656</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65201140678289</v>
+        <v>10.65201140678334</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.21008304703042</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.21008304703042</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="O4" t="n">
-        <v>17.47432211583727</v>
+        <v>18.21008304703118</v>
       </c>
       <c r="P4" t="n">
-        <v>18.21008304703042</v>
+        <v>17.474322115838</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.00233074738662</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="M5" t="n">
         <v>49.79500702712463</v>
@@ -34948,13 +34948,13 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O5" t="n">
-        <v>38.71158060333218</v>
+        <v>47.78308755128121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>42.86418322768703</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9926419400142784</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="L7" t="n">
         <v>49.79500702712463</v>
@@ -35103,10 +35103,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="N7" t="n">
-        <v>49.79500702712463</v>
+        <v>47.78308755128121</v>
       </c>
       <c r="O7" t="n">
-        <v>47.78308755128121</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>57.82896157694119</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>46.77903017045187</v>
       </c>
       <c r="P9" t="n">
         <v>61.58339990340929</v>
@@ -35334,7 +35334,7 @@
         <v>77.4806606383279</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>30.10219503710387</v>
       </c>
       <c r="M10" t="n">
         <v>112.1126601249237</v>
@@ -35343,10 +35343,10 @@
         <v>112.1126601249237</v>
       </c>
       <c r="O10" t="n">
-        <v>41.0962310783657</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="P10" t="n">
-        <v>101.1186240836619</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956152</v>
+        <v>218.6941529956156</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608554</v>
+        <v>379.016873260856</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718184</v>
+        <v>507.4784531718192</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349365</v>
+        <v>596.6568905349372</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132375</v>
+        <v>610.9718353132382</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087706</v>
+        <v>563.4534181087714</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831607</v>
+        <v>446.0449605831613</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031413</v>
+        <v>286.3018494031418</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771306</v>
+        <v>80.26767225771334</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000694</v>
+        <v>111.2448131000696</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000676</v>
+        <v>269.079371800068</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534144</v>
+        <v>408.600867453415</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534907</v>
+        <v>496.3703319534914</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278632</v>
+        <v>240.283929556254</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618521</v>
+        <v>456.9700760618526</v>
       </c>
       <c r="P15" t="n">
-        <v>63.45238862090029</v>
+        <v>347.2304234925063</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139408</v>
+        <v>181.6909118139411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540827</v>
+        <v>56.00609145540841</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654243</v>
+        <v>223.1835325654245</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626195</v>
+        <v>341.6853899626199</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206284</v>
+        <v>370.7533996206288</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894693</v>
+        <v>367.4272239894697</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965158</v>
+        <v>323.2004348965161</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767831</v>
+        <v>252.7955417767833</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335495</v>
+        <v>90.74467096335512</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>111.069105345278</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>492.3362945057773</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327296</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
@@ -36212,13 +36212,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.83071612294</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817348</v>
@@ -36297,7 +36297,7 @@
         <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132.9061636449188</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356842</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O24" t="n">
-        <v>460.0739271306256</v>
+        <v>69.0622548557198</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36534,7 +36534,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>56.44480493840307</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36686,7 +36686,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36768,7 +36768,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055307</v>
       </c>
       <c r="Q28" t="n">
         <v>138.4502995641581</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>306.102070050368</v>
@@ -36923,7 +36923,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
@@ -37160,10 +37160,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>460.0739271306256</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414958</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
@@ -37634,16 +37634,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P39" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37868,10 +37868,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O42" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38038,7 +38038,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>86.05397602152078</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
         <v>138.4502995641581</v>
